--- a/src/test/resources/testdata/hrmstestdata.xlsx
+++ b/src/test/resources/testdata/hrmstestdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohel.abbasi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohel.abbasi\workspace\TestNGFrameworkBatch9\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>FirstName</t>
   </si>
@@ -47,33 +47,6 @@
     <t>test</t>
   </si>
   <si>
-    <t>Tyan</t>
-  </si>
-  <si>
-    <t>Yury</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Parker</t>
-  </si>
-  <si>
-    <t>yury12345</t>
-  </si>
-  <si>
-    <t>john12345</t>
-  </si>
-  <si>
-    <t>will12345</t>
-  </si>
-  <si>
     <t>Syntax123!</t>
   </si>
   <si>
@@ -84,6 +57,36 @@
   </si>
   <si>
     <t>C:\Users\sohel.abbasi\Desktop\photos\Image3.jpg</t>
+  </si>
+  <si>
+    <t>YuliyaBatch9</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>yuliyatest</t>
+  </si>
+  <si>
+    <t>Smithtest</t>
+  </si>
+  <si>
+    <t>JohnBatch9</t>
+  </si>
+  <si>
+    <t>WilliamBatch9</t>
+  </si>
+  <si>
+    <t>Parkertest</t>
+  </si>
+  <si>
+    <t>Yuliya1234</t>
+  </si>
+  <si>
+    <t>Aziz1234</t>
+  </si>
+  <si>
+    <t>Yauheniya12345</t>
   </si>
 </sst>
 </file>
@@ -412,12 +415,12 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.1796875" customWidth="1"/>
@@ -447,62 +450,62 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
